--- a/doc/宏发result表回写补充1.0.xlsx
+++ b/doc/宏发result表回写补充1.0.xlsx
@@ -94,7 +94,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="901" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="902" uniqueCount="161">
   <si>
     <t/>
   </si>
@@ -611,21 +611,25 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>component</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PRODUCT_SPEC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select c.result_type from component c where c.analysis = '继电器企标初始参数' and c.name = '线圈电阻'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>企业标准,规格号,结构类型</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t xml:space="preserve">SELECT * FROM PRODUCT_SPEC where product = 'QFVF4435-2017'  and sampling_point = 'A240' and grade='单稳态'  and  analysis = '继电器企标初始参数';
 </t>
     <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>component</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PRODUCT_SPEC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>select c.result_type from component c where c.analysis = '继电器企标初始参数' and c.name = '线圈电阻'</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1040,10 +1044,13 @@
   <dimension ref="A1:CE19"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="7" max="7" width="25.375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:83" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
@@ -3543,19 +3550,22 @@
         <v>149</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
+      <c r="G14" t="s">
+        <v>159</v>
+      </c>
     </row>
     <row r="15" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>113</v>
       </c>
       <c r="E15" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F15" t="s">
         <v>142</v>
@@ -3599,7 +3609,7 @@
         <v>115</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H16" s="1" t="s">
         <v>117</v>
@@ -3608,7 +3618,7 @@
         <v>0</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="K16" s="1" t="s">
         <v>120</v>
